--- a/OceanSubsidy/Template/SCI/OTech/附件-02海洋科技科專案計畫書/附件-02-2預定進度及查核標準-預定進度.xlsx
+++ b/OceanSubsidy/Template/SCI/OTech/附件-02海洋科技科專案計畫書/附件-02-2預定進度及查核標準-預定進度.xlsx
@@ -1,35 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y\Downloads\整理好的_old-20250716T053644Z-1-001\整理好的_old\科專\業者\附件-02海洋科技科專案計畫書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\外包資料夾\OceanSubsidy\OceanSubsidy\Template\SCI\OTech\附件-02海洋科技科專案計畫書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE882A7-5D68-4CC5-8AB5-28CDB4E50ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04481E5-3B1D-4107-92D7-8D450C81041B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11328" yWindow="0" windowWidth="11712" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk177672963" localSheetId="0">工作表1!$A$26</definedName>
-    <definedName name="_Hlk177674419" localSheetId="0">工作表1!$A$31</definedName>
+    <definedName name="_Hlk177672963" localSheetId="0">工作表1!$A$9</definedName>
+    <definedName name="_Hlk177674419" localSheetId="0">工作表1!$A$14</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>A.XX</t>
   </si>
@@ -334,11 +347,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -361,6 +371,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -373,19 +396,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,773 +688,1070 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:O29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9.125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:27" ht="33" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+    </row>
+    <row r="5" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4">
-        <v>5</v>
-      </c>
-      <c r="I4" s="4">
-        <v>6</v>
-      </c>
-      <c r="J4" s="4">
-        <v>7</v>
-      </c>
-      <c r="K4" s="4">
-        <v>8</v>
-      </c>
-      <c r="L4" s="4">
-        <v>9</v>
-      </c>
-      <c r="M4" s="4">
-        <v>10</v>
-      </c>
-      <c r="N4" s="4">
-        <v>11</v>
-      </c>
-      <c r="O4" s="4">
-        <v>12</v>
-      </c>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="18"/>
-    </row>
-    <row r="7" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="18"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+    </row>
+    <row r="6" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+    </row>
+    <row r="7" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+    </row>
+    <row r="8" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="17"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="19"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="18"/>
-    </row>
-    <row r="10" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="18"/>
-    </row>
-    <row r="12" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
-      <c r="P12" s="18"/>
-    </row>
-    <row r="13" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+    </row>
+    <row r="13" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="18"/>
-    </row>
-    <row r="14" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="18"/>
-    </row>
-    <row r="15" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="A12:O12"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2829D0A2-F1F4-4B2C-AC2A-4EB0C5510678}">
+  <dimension ref="A1:P31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3">
+        <v>7</v>
+      </c>
+      <c r="K4" s="3">
+        <v>8</v>
+      </c>
+      <c r="L4" s="3">
+        <v>9</v>
+      </c>
+      <c r="M4" s="3">
+        <v>10</v>
+      </c>
+      <c r="N4" s="3">
+        <v>11</v>
+      </c>
+      <c r="O4" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="18"/>
-    </row>
-    <row r="16" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="18"/>
-    </row>
-    <row r="17" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+    </row>
+    <row r="10" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+    </row>
+    <row r="12" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>0</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="18"/>
-    </row>
-    <row r="19" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+    </row>
+    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="18"/>
-    </row>
-    <row r="20" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>0</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="18"/>
-    </row>
-    <row r="21" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="18"/>
-    </row>
-    <row r="22" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-    </row>
-    <row r="27" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-    </row>
-    <row r="28" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-    </row>
-    <row r="29" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-    </row>
-    <row r="30" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+    </row>
+    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-    </row>
-    <row r="31" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+    </row>
+    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="P20:P21"/>
+  <mergeCells count="106">
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="A29:O29"/>
+    <mergeCell ref="A30:O30"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:O26"/>
+    <mergeCell ref="A27:O27"/>
+    <mergeCell ref="A28:O28"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="L15:L16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O8:O9"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="A26:O26"/>
-    <mergeCell ref="A28:O28"/>
-    <mergeCell ref="A29:O29"/>
-    <mergeCell ref="A30:O30"/>
-    <mergeCell ref="A31:O31"/>
-    <mergeCell ref="A27:O27"/>
     <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>